--- a/biology/Biologie cellulaire et moléculaire/ADNc/ADNc.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ADNc/ADNc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ADN complémentaire (ou ADNc, Acide désoxyribonucléique complémentaire) est un simple brin artificiellement synthétisé à partir d'un ARNm, représentant ainsi la partie codante de la région du génome ayant été transcrit en cet ARNm. Il est obtenu après une réaction de transcription inverse d'un ARNm mature et équivaut donc à la copie ADN de l'ARNm qui a été extrait dans une cellule donnée à un moment donné. L'ADNc double brin résulte de la copie du premier brin par une ADN polymérase.
 L'ADNc est aussi l'ADN produit in vitro, par la transcription in vitro, et sa séquence de bases est complémentaire à un ARNm particulier. L'ADN complémentaire est utilisé pour étudier l'expression des gènes parce qu'il est plus stable que l'ARN et plus facile à utiliser dans les techniques de clonage de protéines recombinantes.
